--- a/docs/artists.xlsx
+++ b/docs/artists.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -172,13 +172,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Fira Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Fira Sans"/>
       <family val="2"/>
@@ -204,12 +210,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,242 +497,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="11.5703125" style="1"/>
+    <col min="5" max="5" width="166.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="1025" width="11.5703125" style="1"/>
     <col min="1026" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>CONCATENATE("insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('", A2,"', '",B2,"', '",C2,"', '",D2,"')")</f>
+        <v>insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('b83bc61f-8451-4a5d-8b8e-7e9ed295e822', 'Elton John', 'GB', 'E. John, Elthon John,Elton Jphn,John Elton, Reginald Kenneth Dwight')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E16" si="0">CONCATENATE("insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('", A3,"', '",B3,"', '",C3,"', '",D3,"')")</f>
+        <v>insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('6456a893-c1e9-4e3d-86f7-0008b0a3ac8a', 'Jack Johnson', 'US', 'Jack Hody Johnson')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('b625448e-bf4a-41c3-a421-72ad46cdb831', 'John Coltrane', 'US', 'John Coltraine,John William Coltrane')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('f1571db1-c672-4a54-a2cf-aaa329f26f0b', 'John Frusciante', 'US', 'John Anthony Frusciante')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('144ef525-85e9-40c3-8335-02c32d0861f3', 'John Mayer', 'US', '')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('18fa2fd5-3ef2-4496-ba9f-6dae655b2a4f', 'Johnny Cash', 'US', 'Johhny Cash,Jonny Cash')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('650e7db6-b795-4eb5-a702-5ea2fc46c848', 'Lady Gaga', 'US', 'Lady Ga Ga,Stefani Joanne Angelina Germanotta')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('a9044915-8be3-4c7e-b11f-9e2d2ea0a91e', 'Megadeth', 'US', 'Megadeath')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('65f4f0c5-ef9e-490c-aee3-909e7ae6b2ab', 'Metallica', 'US', 'Metalica,메탈리카')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('d700b3f5-45af-4d02-95ed-57d301bda93e', 'Mogwai', 'GB', 'Mogwa')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('435f1441-0f43-479d-92db-a506449a686b', 'Mott the Hoople', 'GB', 'Mott The Hoppie,Mott The Hopple')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('c44e9c22-ef82-4a77-9bcd-af6c958446d6', 'Mumford &amp; Sons', 'GB', '')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('931e1d1f-6b2f-4ff8-9f70-aa537210cd46', 'Operation Ivy', 'US', 'Op Ivy')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('24f8d8a5-269b-475c-a1cb-792990b0b2ee', 'Rancid', 'US', 'ランシド')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into [Artist] ([Id], [Name], [Country], [Aliases]) values ('29f3e1bf-aec1-4d0a-9ef3-0cb95e8a3699', 'Transplants', 'US', 'The Transplants')</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D16">
+    <sortCondition ref="B2:B16"/>
+  </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter>
